--- a/Employee_Reports35/Kasansula Francis Kiwanuka Q0527.xlsx
+++ b/Employee_Reports35/Kasansula Francis Kiwanuka Q0527.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,20 +759,20 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>28-Jan-2025</t>
+          <t>21-Sep-2025</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>28-Jan-2026</t>
+          <t>21-Sep-2026</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -903,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -940,11 +940,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">

--- a/Employee_Reports35/Kasansula Francis Kiwanuka Q0527.xlsx
+++ b/Employee_Reports35/Kasansula Francis Kiwanuka Q0527.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -903,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -940,11 +940,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
